--- a/SinhVien.xlsx
+++ b/SinhVien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -104,6 +104,9 @@
     <t>Trần Chiến Công</t>
   </si>
   <si>
+    <t>CNTT2</t>
+  </si>
+  <si>
     <t>235334523</t>
   </si>
   <si>
@@ -135,6 +138,12 @@
   </si>
   <si>
     <t>Bill@gmail.com</t>
+  </si>
+  <si>
+    <t>sv06</t>
+  </si>
+  <si>
+    <t>Lê Thị Thanh Đo</t>
   </si>
 </sst>
 </file>
@@ -179,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -314,7 +323,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>36558.0</v>
@@ -329,10 +338,10 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -343,10 +352,10 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -364,10 +373,10 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -378,10 +387,10 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -393,18 +402,53 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36558.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/SinhVien.xlsx
+++ b/SinhVien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>STT</t>
   </si>
@@ -104,46 +104,10 @@
     <t>Trần Chiến Công</t>
   </si>
   <si>
-    <t>CNTT2</t>
-  </si>
-  <si>
     <t>235334523</t>
   </si>
   <si>
     <t>Cong@gmail.com</t>
-  </si>
-  <si>
-    <t>sv04</t>
-  </si>
-  <si>
-    <t>Huỳnh Ngọc Trường Danh</t>
-  </si>
-  <si>
-    <t>345223423</t>
-  </si>
-  <si>
-    <t>Danh@gmail.com</t>
-  </si>
-  <si>
-    <t>sv05</t>
-  </si>
-  <si>
-    <t>Bill Gate</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Bill@gmail.com</t>
-  </si>
-  <si>
-    <t>sv06</t>
-  </si>
-  <si>
-    <t>Lê Thị Thanh Đo</t>
   </si>
 </sst>
 </file>
@@ -188,7 +152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -196,11 +160,11 @@
   <cols>
     <col min="1" max="1" width="4.19140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.39453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.35546875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="8.7578125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="9.71875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="8.41796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="7.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.74609375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.07421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="17.34765625" customWidth="true" bestFit="true"/>
@@ -323,7 +287,7 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>36558.0</v>
@@ -338,117 +302,12 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
       <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>36558.0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>36558.0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36558.0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/SinhVien.xlsx
+++ b/SinhVien.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -96,18 +96,6 @@
   </si>
   <si>
     <t>Dao@gmail.com</t>
-  </si>
-  <si>
-    <t>sv03</t>
-  </si>
-  <si>
-    <t>Trần Chiến Công</t>
-  </si>
-  <si>
-    <t>235334523</t>
-  </si>
-  <si>
-    <t>Cong@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -152,7 +140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -276,41 +264,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36558.0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
